--- a/tools/office/data/example.xlsx
+++ b/tools/office/data/example.xlsx
@@ -366,7 +366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -466,6 +466,12 @@
       </c>
       <c r="C7" s="3" t="n">
         <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8">
+        <f>SUM(C1:C7)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -508,7 +514,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>44000.69409348146</v>
+        <v>44012.75094630256</v>
       </c>
     </row>
   </sheetData>

--- a/tools/office/data/example.xlsx
+++ b/tools/office/data/example.xlsx
@@ -372,14 +372,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="20.109375"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
-        <v>42099.56530092594</v>
+        <v>42099.56530092593</v>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>44012.75094630256</v>
+        <v>44015.48941571258</v>
       </c>
     </row>
   </sheetData>
